--- a/products/review.xlsx
+++ b/products/review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilson\Desktop\AirCalibrate\products\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF122AA-2D44-41F9-B752-2DEBC4FC2661}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77D2ADB-FC2C-4B2A-B489-623DFDCC6BF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="144">
   <si>
     <t>Bi</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>purpleair(PPA)+EPA (N=2090+157)</t>
-  </si>
-  <si>
-    <t>10sec?</t>
   </si>
   <si>
     <t>https://www.sciencedirect.com/science/article/abs/pii/S1352231019305850</t>
@@ -910,10 +907,10 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -951,13 +948,13 @@
         <v>15</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>21</v>
@@ -966,22 +963,22 @@
         <v>12</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>13</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q1" s="6" t="s">
         <v>9</v>
@@ -995,7 +992,7 @@
         <v>2020</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>4</v>
@@ -1007,17 +1004,17 @@
         <v>22</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>5</v>
@@ -1043,35 +1040,35 @@
         <v>19</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J3" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>136</v>
-      </c>
       <c r="L3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>18</v>
@@ -1083,156 +1080,156 @@
     </row>
     <row r="4" spans="1:17" ht="98" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="4">
         <v>2018</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="L4" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="280" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="4">
         <v>2019</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="2" customFormat="1" ht="126" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="5">
         <v>2019</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F6" s="5">
         <v>7</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="J6" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="140" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
@@ -1242,43 +1239,43 @@
         <v>3</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="126" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>17</v>
@@ -1287,162 +1284,162 @@
         <v>3</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N8" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="O8" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="126" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B9" s="4">
         <v>2018</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="112" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B10" s="4">
         <v>2017</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="I10" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="N10" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="N10" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="O10" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="112" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B11" s="4">
         <v>2018</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4">
         <v>9</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="N11" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="O11" s="7"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="126" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B12" s="4">
         <v>2015</v>
@@ -1455,7 +1452,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -1464,12 +1461,12 @@
       <c r="O12" s="7"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="70" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B13" s="4">
         <v>2012</v>
@@ -1482,7 +1479,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -1491,12 +1488,12 @@
       <c r="O13" s="7"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="126" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B14" s="4">
         <v>2013</v>
@@ -1509,7 +1506,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -1518,12 +1515,12 @@
       <c r="O14" s="7"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="126" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B15" s="4">
         <v>2008</v>
@@ -1536,7 +1533,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -1545,23 +1542,23 @@
       <c r="O15" s="7"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="126" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="4">
         <v>2019</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -1571,12 +1568,12 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O16" s="7"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
